--- a/biology/Origine et évolution du vivant/Géodrilologie/Géodrilologie.xlsx
+++ b/biology/Origine et évolution du vivant/Géodrilologie/Géodrilologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9odrilologie</t>
+          <t>Géodrilologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La géodrilologie est la branche de la zoologie dont l'objet est l'étude des vers de terre. En 2020, elle rassemble 140 spécialistes des annélides. Ces derniers comptabilisent à cette date environ sept mille espèces connues, rassemblées en treize familles de lombriciens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9odrilologie</t>
+          <t>Géodrilologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Étymologie et usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de géodrilologie est en usage en français pour désigner l'étude des lombrics[1],[2],[3].
-En revanche, ce terme n'est pas traduit en anglais, où l'étude des vers est simplement appelée « earthworms study »[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de géodrilologie est en usage en français pour désigner l'étude des lombrics.
+En revanche, ce terme n'est pas traduit en anglais, où l'étude des vers est simplement appelée « earthworms study ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9odrilologie</t>
+          <t>Géodrilologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la géodrilologie se structure à partir des travaux de Marcel Bouché, qui effectue de nombreuses recherches sur le terrain et publie en 1972 un inventaire inédit des différentes espèces de lombrics[7],[3].
-En 2020, près de cent quarante géodrilologues sont recensés dans le monde ; à cette date, ils publient conjointement une étude réalisée sur 6 928 sites répartis dans cinquante-sept pays différents[8],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la géodrilologie se structure à partir des travaux de Marcel Bouché, qui effectue de nombreuses recherches sur le terrain et publie en 1972 un inventaire inédit des différentes espèces de lombrics,.
+En 2020, près de cent quarante géodrilologues sont recensés dans le monde ; à cette date, ils publient conjointement une étude réalisée sur 6 928 sites répartis dans cinquante-sept pays différents,.
 </t>
         </is>
       </c>
